--- a/Confusion Matrices/20180908_191026_ConfusionMatrix_Data.xlsx
+++ b/Confusion Matrices/20180908_191026_ConfusionMatrix_Data.xlsx
@@ -566,22 +566,22 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1456,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1715,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1840,28 +1840,28 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2349,13 +2349,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
@@ -2495,13 +2495,13 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
         <v>3</v>
@@ -2727,25 +2727,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>8</v>
+      </c>
+      <c r="V19" t="n">
         <v>7</v>
       </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>5</v>
-      </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2855,37 +2855,37 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -2980,43 +2980,43 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>26</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9</v>
+      </c>
+      <c r="X21" t="n">
         <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>9</v>
-      </c>
-      <c r="V21" t="n">
-        <v>33</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4</v>
       </c>
       <c r="Y21" t="n">
         <v>2</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3114,37 +3114,37 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7</v>
+      </c>
+      <c r="V22" t="n">
+        <v>43</v>
+      </c>
+      <c r="W22" t="n">
+        <v>14</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="n">
         <v>9</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
         <v>5</v>
       </c>
-      <c r="V22" t="n">
-        <v>44</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
         <v>2</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -3239,40 +3239,40 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>6</v>
+      </c>
+      <c r="V23" t="n">
+        <v>57</v>
+      </c>
+      <c r="W23" t="n">
+        <v>13</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
         <v>2</v>
       </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" t="n">
-        <v>6</v>
-      </c>
-      <c r="U23" t="n">
-        <v>9</v>
-      </c>
-      <c r="V23" t="n">
-        <v>54</v>
-      </c>
-      <c r="W23" t="n">
-        <v>16</v>
-      </c>
-      <c r="X23" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>4</v>
       </c>
-      <c r="Z23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1</v>
-      </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -3370,37 +3370,37 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="W24" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
         <v>32</v>
@@ -3519,16 +3519,16 @@
         <v>17</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AB25" t="n">
         <v>5</v>
       </c>
       <c r="AC25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3632,43 +3632,43 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
+        <v>8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA26" t="n">
         <v>11</v>
       </c>
-      <c r="W26" t="n">
-        <v>11</v>
-      </c>
-      <c r="X26" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -3763,34 +3763,34 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>11</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC27" t="n">
         <v>3</v>
       </c>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>4</v>
-      </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3888,43 +3888,43 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
         <v>3</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
         <v>3</v>
       </c>
-      <c r="X28" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>62</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>53</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -4016,43 +4016,43 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
         <v>5</v>
       </c>
-      <c r="Y29" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>2</v>
-      </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
         <v>1</v>
@@ -4147,43 +4147,43 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
         <v>3</v>
       </c>
       <c r="X30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD30" t="n">
         <v>3</v>
       </c>
-      <c r="Y30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>5</v>
-      </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -4281,34 +4281,34 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AC31" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -4403,46 +4403,46 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
         <v>2</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AD32" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AF32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -4540,34 +4540,34 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH33" t="n">
         <v>4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>5</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -4668,37 +4668,37 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
         <v>3</v>
       </c>
-      <c r="AG34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>4</v>
-      </c>
       <c r="AI34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
@@ -4799,31 +4799,31 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
         <v>2</v>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
       <c r="AC35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
@@ -4915,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -4936,22 +4936,22 @@
         <v>2</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
@@ -5061,19 +5061,19 @@
         <v>1</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="AI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
@@ -5192,22 +5192,22 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>3</v>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -5332,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -5448,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
         <v>0</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
